--- a/Uncertainty Budget.xlsx
+++ b/Uncertainty Budget.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dyeagly\Documents\hall_probe\hall_probe\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14685"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>Scan speed</t>
   </si>
@@ -74,19 +82,23 @@
   </si>
   <si>
     <t>root 3</t>
+  </si>
+  <si>
+    <t>Notes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -96,40 +108,50 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -319,28 +341,33 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="29.86"/>
+    <col min="1" max="1" width="29.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -350,36 +377,39 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3">
+      <c r="H2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="2">
         <f>0.001*B1</f>
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>10</v>
@@ -388,20 +418,20 @@
         <v>11</v>
       </c>
       <c r="E3" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="3">
         <f>B3</f>
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -415,19 +445,19 @@
         <v>15</v>
       </c>
       <c r="F4" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="2">
         <f>0.0003*B1</f>
-        <v>0.0015</v>
+        <v>1.4999999999999998E-3</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>10</v>
@@ -436,22 +466,22 @@
         <v>15</v>
       </c>
       <c r="E5" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="3">
         <f>B5</f>
-        <v>0.0015</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>1.4999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="2">
-        <v>0.0035</v>
+        <v>3.5000000000000001E-3</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>10</v>
@@ -463,26 +493,26 @@
         <v>20</v>
       </c>
       <c r="F6" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="3">
-        <f>B6/sqrt(3)</f>
-        <v>0.002020725942</v>
-      </c>
-    </row>
-    <row r="8">
+        <f>B6/SQRT(3)</f>
+        <v>2.0207259421636905E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G8" s="3">
         <f>SQRT(SUMSQ(G3:G6))</f>
-        <v>0.005597618541</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>5.5976185412488881E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G9" s="3">
         <f>G8*1.96</f>
-        <v>0.01097133234</v>
+        <v>1.0971332340847821E-2</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Uncertainty Budget.xlsx
+++ b/Uncertainty Budget.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>Scan speed</t>
   </si>
@@ -60,31 +60,46 @@
     <t>using geometric mean. (std dev == mean)</t>
   </si>
   <si>
-    <t>CMM speed std dev k=1</t>
-  </si>
-  <si>
-    <t>TBD</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
     <t>need to perform speed tests with CMM using interferometer and precision rtc</t>
   </si>
   <si>
-    <t>Packet transmit std dev k=1</t>
-  </si>
-  <si>
     <t>CMM position</t>
   </si>
   <si>
     <t>rectangular</t>
   </si>
   <si>
-    <t>root 3</t>
-  </si>
-  <si>
     <t>Notes</t>
+  </si>
+  <si>
+    <t>FSV position error</t>
+  </si>
+  <si>
+    <t>normal, k=1</t>
+  </si>
+  <si>
+    <t>CMM position, start trigger delta</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>Combined uncertainty</t>
+  </si>
+  <si>
+    <t>k=2</t>
+  </si>
+  <si>
+    <t>S/s</t>
+  </si>
+  <si>
+    <t>Sample rate (approx)</t>
+  </si>
+  <si>
+    <t>CMM speed</t>
+  </si>
+  <si>
+    <t>Packet transmit</t>
   </si>
 </sst>
 </file>
@@ -123,7 +138,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -133,6 +148,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -351,18 +367,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" customWidth="1"/>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -377,139 +395,220 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1600</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3">
+        <f>SQRT((SUMSQ(G7:G1048576)))</f>
+        <v>1.9523590164635875E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <f>B3*2</f>
+        <v>3.904718032927175E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="H6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2">
-        <f>0.001*B1</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="B7" s="2">
+        <v>1.5E-3</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="2">
+        <f>B1</f>
+        <v>5</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="2">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3">
-        <f>B3</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="H3" s="2" t="s">
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" ref="G7:G12" si="0">B7*D7/F7</f>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <f>1/B2</f>
+        <v>6.2500000000000001E-4</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="0"/>
+        <v>6.2500000000000001E-5</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="2">
+    </row>
+    <row r="9" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="2">
         <f>0.0003*B1</f>
         <v>1.4999999999999998E-3</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="2">
+        <f>B1</f>
+        <v>5</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="0"/>
+        <v>7.4999999999999989E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="2">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="2">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1</v>
-      </c>
-      <c r="G5" s="3">
-        <f>B5</f>
-        <v>1.4999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="F10" s="2">
+        <f>SQRT(3)</f>
+        <v>1.7320508075688772</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" si="0"/>
+        <v>2.0207259421636905E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="2">
+        <f>SQRT(3)</f>
+        <v>1.7320508075688772</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="0"/>
+        <v>1.4433756729740645E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12">
+        <v>1.5E-3</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="5">
+        <v>5</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="2">
-        <v>3.5000000000000001E-3</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="2">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3">
-        <f>B6/SQRT(3)</f>
-        <v>2.0207259421636905E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G8" s="3">
-        <f>SQRT(SUMSQ(G3:G6))</f>
-        <v>5.5976185412488881E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G9" s="3">
-        <f>G8*1.96</f>
-        <v>1.0971332340847821E-2</v>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
     </row>
   </sheetData>

--- a/Uncertainty Budget.xlsx
+++ b/Uncertainty Budget.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>Scan speed</t>
   </si>
@@ -60,9 +60,6 @@
     <t>using geometric mean. (std dev == mean)</t>
   </si>
   <si>
-    <t>need to perform speed tests with CMM using interferometer and precision rtc</t>
-  </si>
-  <si>
     <t>CMM position</t>
   </si>
   <si>
@@ -72,15 +69,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>FSV position error</t>
-  </si>
-  <si>
-    <t>normal, k=1</t>
-  </si>
-  <si>
-    <t>CMM position, start trigger delta</t>
-  </si>
-  <si>
     <t>s</t>
   </si>
   <si>
@@ -96,16 +84,25 @@
     <t>Sample rate (approx)</t>
   </si>
   <si>
-    <t>CMM speed</t>
-  </si>
-  <si>
-    <t>Packet transmit</t>
+    <t>FSV x position error</t>
+  </si>
+  <si>
+    <t>FSV y position error</t>
+  </si>
+  <si>
+    <t>FSV z position error</t>
+  </si>
+  <si>
+    <t>normal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -148,7 +145,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -367,10 +364,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -397,13 +394,13 @@
     </row>
     <row r="2" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1">
-        <v>1600</v>
+        <v>1578</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -412,20 +409,20 @@
     </row>
     <row r="3" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B3">
         <f>SQRT((SUMSQ(G7:G1048576)))</f>
-        <v>1.9523590164635875E-2</v>
+        <v>2.3072349974229616E-2</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B4">
         <f>B3*2</f>
-        <v>3.904718032927175E-2</v>
+        <v>4.6144699948459232E-2</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="12.75" x14ac:dyDescent="0.2"/>
@@ -452,7 +449,7 @@
         <v>8</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -463,7 +460,7 @@
         <v>1.5E-3</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D7" s="2">
         <f>B1</f>
@@ -476,98 +473,92 @@
         <v>1</v>
       </c>
       <c r="G7" s="3">
-        <f t="shared" ref="G7:G12" si="0">B7*D7/F7</f>
+        <f t="shared" ref="G7:G11" si="0">B7*D7/F7</f>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2">
-        <v>0.1</v>
+        <v>3.5000000000000001E-3</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D8" s="2">
-        <f>1/B2</f>
-        <v>6.2500000000000001E-4</v>
+        <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="F8" s="2">
+        <f>SQRT(3)</f>
+        <v>1.7320508075688772</v>
       </c>
       <c r="G8" s="3">
         <f t="shared" si="0"/>
-        <v>6.2500000000000001E-5</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+        <v>2.0207259421636905E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="2">
-        <f>0.0003*B1</f>
-        <v>1.4999999999999998E-3</v>
+        <v>21</v>
+      </c>
+      <c r="B9">
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D9" s="2">
-        <f>B1</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F9" s="2">
         <v>1</v>
       </c>
       <c r="G9" s="3">
         <f t="shared" si="0"/>
-        <v>7.4999999999999989E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="2">
-        <v>3.5000000000000001E-3</v>
+        <v>22</v>
+      </c>
+      <c r="B10">
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="2">
-        <f>SQRT(3)</f>
-        <v>1.7320508075688772</v>
+        <v>24</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
       </c>
       <c r="G10" s="3">
         <f t="shared" si="0"/>
-        <v>2.0207259421636905E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11">
-        <v>2.5000000000000001E-2</v>
+        <v>23</v>
+      </c>
+      <c r="B11" s="5">
+        <v>0.02</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>10</v>
@@ -576,39 +567,14 @@
         <v>1</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F11" s="2">
-        <f>SQRT(3)</f>
-        <v>1.7320508075688772</v>
+        <v>1</v>
       </c>
       <c r="G11" s="3">
         <f t="shared" si="0"/>
-        <v>1.4433756729740645E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12">
-        <v>1.5E-3</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="5">
-        <v>5</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="2">
-        <v>1</v>
-      </c>
-      <c r="G12" s="3">
-        <f t="shared" si="0"/>
-        <v>7.4999999999999997E-3</v>
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>
